--- a/ML_Assignment_2_Results.xlsx
+++ b/ML_Assignment_2_Results.xlsx
@@ -7,10 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Detailed Metrics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Best Models" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Model Rankings" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -578,7 +575,7 @@
         <v>0.9081419624217119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9795675134287045</v>
+        <v>0.9796167451852545</v>
       </c>
       <c r="D6" t="n">
         <v>0.8810035890287088</v>
@@ -616,557 +613,6 @@
       </c>
       <c r="G7" t="n">
         <v>0.8827683402843287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>kNN</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7515657620041754</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.918580375782881</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6242171189979123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7515657620041754</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9081419624217119</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9206680584551148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8935595173798372</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.916992451290309</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7750338430675592</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.898734687050009</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9795675134287045</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9905882961484146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5964769923741461</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.849000209693731</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4467763364013076</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7368379067441021</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8810035890287088</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8608084023671336</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5694071905584623</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8554384135374764</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4268390888203472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5940316959058592</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8005671308214815</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8546160765705612</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5762483635459746</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8518621157389275</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4266466141969342</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5862761747660733</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.816031216424603</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8550549211686684</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.626521685147485</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8793518348421769</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4362559440740586</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6380153945848781</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8628560663179136</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8827683402843287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Best Model</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Best Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9206680584551148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9905882961484146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8810035890287088</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8554384135374764</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8550549211686684</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8827683402843287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy_Rank</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AUC_Rank</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precision_Rank</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recall_Rank</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F1_Rank</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MCC_Rank</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Average_Rank</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Logistic Regression</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>kNN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
